--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.6463274928739651</v>
+        <v>4.6463274819545148</v>
       </c>
       <c r="C2">
-        <v>8.3882316157219563</v>
+        <v>8.3882316046892313</v>
       </c>
       <c r="D2">
-        <v>10.356389020243306</v>
+        <v>10.356388993320124</v>
       </c>
       <c r="E2">
-        <v>19.60514117360951</v>
+        <v>19.605141164614636</v>
       </c>
       <c r="F2">
-        <v>8.3637142430178528</v>
+        <v>8.363714235736488</v>
       </c>
       <c r="G2">
-        <v>4.9487345497648221</v>
+        <v>4.9487345528958002</v>
       </c>
       <c r="H2">
-        <v>6.8989651620114785</v>
+        <v>6.8989651469446116</v>
       </c>
       <c r="I2">
-        <v>10.085798911229908</v>
+        <v>10.085798921038077</v>
       </c>
       <c r="J2">
-        <v>12.194223534418391</v>
+        <v>12.194223512707246</v>
       </c>
       <c r="K2">
-        <v>4.0013860559491192</v>
+        <v>4.0013860657227553</v>
       </c>
       <c r="L2">
-        <v>2.3525873797784129</v>
+        <v>2.3525873710361438</v>
       </c>
       <c r="N2">
-        <v>11.382253393653933</v>
+        <v>11.382253393115221</v>
       </c>
       <c r="O2">
-        <v>8.151202807095089</v>
+        <v>8.1512027808986502</v>
       </c>
       <c r="P2">
-        <v>14.08209025410995</v>
+        <v>14.082090244939749</v>
       </c>
       <c r="Q2">
-        <v>1.988790252616397</v>
+        <v>1.9887902185629045</v>
       </c>
       <c r="S2">
-        <v>20.277395107141118</v>
+        <v>20.277394946279358</v>
       </c>
       <c r="V2">
-        <v>7.1069029029881392</v>
+        <v>7.1069028698564267</v>
       </c>
       <c r="W2">
-        <v>-6.5754358655714213</v>
+        <v>-6.575435884349254</v>
       </c>
       <c r="X2">
-        <v>3.4380206519794783</v>
+        <v>3.4380206320261522</v>
       </c>
       <c r="AA2">
-        <v>15.940360417456638</v>
+        <v>15.940360384919096</v>
       </c>
       <c r="AB2">
-        <v>14.340449609295334</v>
+        <v>14.34044954971047</v>
       </c>
       <c r="AC2">
-        <v>2.6379375159305098</v>
+        <v>2.637937517224195</v>
       </c>
       <c r="AD2">
-        <v>22.305132981970694</v>
+        <v>22.305132914881931</v>
       </c>
       <c r="AE2">
-        <v>9.0970909606304176</v>
+        <v>9.0970909583963433</v>
       </c>
       <c r="AF2">
-        <v>13.064963851092088</v>
+        <v>13.064963845572734</v>
       </c>
       <c r="AG2">
-        <v>12.619830077967855</v>
+        <v>12.619830047543864</v>
       </c>
       <c r="AH2">
-        <v>15.090741967207805</v>
+        <v>15.090741921717296</v>
       </c>
       <c r="AI2">
-        <v>14.493644689447464</v>
+        <v>14.493644623115571</v>
       </c>
       <c r="AJ2">
-        <v>8.5871640644672524</v>
+        <v>8.5871640524335007</v>
       </c>
       <c r="AK2">
-        <v>11.06630892596781</v>
+        <v>11.06630889679542</v>
       </c>
       <c r="AL2">
-        <v>0.7686393514391483</v>
+        <v>0.76863932088767228</v>
       </c>
       <c r="AM2">
-        <v>13.983032200415884</v>
+        <v>13.983032143451659</v>
       </c>
       <c r="AN2">
-        <v>12.170645595340503</v>
+        <v>12.17064555978687</v>
       </c>
       <c r="AO2">
-        <v>22.271103817918267</v>
+        <v>22.271103765902986</v>
       </c>
       <c r="AQ2">
-        <v>2.0237595504630335</v>
+        <v>2.0237595015827239</v>
       </c>
       <c r="AR2">
-        <v>23.098298002306358</v>
+        <v>23.098298020324371</v>
       </c>
       <c r="AS2">
-        <v>18.118545418521784</v>
+        <v>18.118545361508929</v>
       </c>
       <c r="AU2">
-        <v>13.154795310340475</v>
+        <v>13.154795282619745</v>
       </c>
       <c r="AV2">
-        <v>5.4297498706914098</v>
+        <v>5.4297498050414603</v>
       </c>
       <c r="AW2">
-        <v>6.5891578087798095</v>
+        <v>6.5891577686768912</v>
       </c>
       <c r="AX2">
-        <v>16.978458282988761</v>
+        <v>16.978458257399815</v>
       </c>
       <c r="AY2">
-        <v>21.870200611613704</v>
+        <v>21.87020056393343</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.2439649084810114</v>
+        <v>6.2439648798601084</v>
       </c>
       <c r="C3">
-        <v>7.1483160760254663</v>
+        <v>7.1483160440816675</v>
       </c>
       <c r="E3">
-        <v>15.775965894429859</v>
+        <v>15.775965878614628</v>
       </c>
       <c r="F3">
-        <v>5.4973711283072717</v>
+        <v>5.497371107717143</v>
       </c>
       <c r="G3">
-        <v>11.851809120896995</v>
+        <v>11.851809101915677</v>
       </c>
       <c r="H3">
-        <v>1.4375077501292779</v>
+        <v>1.4375077414425661</v>
       </c>
       <c r="J3">
-        <v>16.353393397014941</v>
+        <v>16.353393342589797</v>
       </c>
       <c r="K3">
-        <v>24.543621700782786</v>
+        <v>24.543621682577815</v>
       </c>
       <c r="L3">
-        <v>15.392915126804247</v>
+        <v>15.392915090847175</v>
       </c>
       <c r="M3">
-        <v>3.1728740751836497</v>
+        <v>3.1727473507279669</v>
       </c>
       <c r="N3">
-        <v>10.228377153447383</v>
+        <v>10.228377126803458</v>
       </c>
       <c r="P3">
-        <v>15.518577504662851</v>
+        <v>15.518577448331001</v>
       </c>
       <c r="Q3">
-        <v>7.4242243421734955</v>
+        <v>7.4242243172262619</v>
       </c>
       <c r="R3">
-        <v>1.2961980037739878</v>
+        <v>1.2961979451674353</v>
       </c>
       <c r="W3">
-        <v>1.2728719481040045</v>
+        <v>1.2728719013312713</v>
       </c>
       <c r="AA3">
-        <v>17.690147028176121</v>
+        <v>17.690146985392794</v>
       </c>
       <c r="AB3">
-        <v>15.136298779356942</v>
+        <v>15.136298743260504</v>
       </c>
       <c r="AC3">
-        <v>18.017897459784656</v>
+        <v>18.017897450933376</v>
       </c>
       <c r="AD3">
-        <v>23.047558892474832</v>
+        <v>23.047558865984989</v>
       </c>
       <c r="AE3">
-        <v>14.900497837977042</v>
+        <v>14.900497828624793</v>
       </c>
       <c r="AF3">
-        <v>12.864121741798677</v>
+        <v>12.864121715395122</v>
       </c>
       <c r="AG3">
-        <v>7.1563901065412026</v>
+        <v>7.1563900695378564</v>
       </c>
       <c r="AH3">
-        <v>7.0262117759864466</v>
+        <v>7.0262117317045423</v>
       </c>
       <c r="AI3">
-        <v>38.101301860797989</v>
+        <v>38.10130185592196</v>
       </c>
       <c r="AJ3">
-        <v>18.541052328088966</v>
+        <v>18.541052290699284</v>
       </c>
       <c r="AK3">
-        <v>16.237824070171307</v>
+        <v>16.2378240417681</v>
       </c>
       <c r="AL3">
-        <v>11.524041180115091</v>
+        <v>11.524041127171941</v>
       </c>
       <c r="AM3">
-        <v>12.0705143794195</v>
+        <v>12.070514308248143</v>
       </c>
       <c r="AN3">
-        <v>-5.955975047141159</v>
+        <v>-5.9559750752126561</v>
       </c>
       <c r="AO3">
-        <v>21.511185678936947</v>
+        <v>21.511185656348992</v>
       </c>
       <c r="AP3">
-        <v>7.0226795450628074</v>
+        <v>7.0226795110316473</v>
       </c>
       <c r="AQ3">
-        <v>10.194342712692375</v>
+        <v>10.194342679315923</v>
       </c>
       <c r="AS3">
-        <v>15.207778439285754</v>
+        <v>15.207778429769107</v>
       </c>
       <c r="AT3">
-        <v>15.696035755661356</v>
+        <v>15.696035717564357</v>
       </c>
       <c r="AU3">
-        <v>9.2489426938552199</v>
+        <v>9.2489426839470568</v>
       </c>
       <c r="AV3">
-        <v>6.389752275959836</v>
+        <v>6.3897522459592295</v>
       </c>
       <c r="AW3">
-        <v>6.6911284475055766</v>
+        <v>6.6911284159242115</v>
       </c>
       <c r="AX3">
-        <v>8.3529719165930203</v>
+        <v>8.3529718821590109</v>
       </c>
       <c r="AY3">
-        <v>24.782528657147182</v>
+        <v>24.782528613887337</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.6463274819545148</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.3882316046892313</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>10.356388993320124</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>19.605141164614636</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.363714235736488</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.9487345528958002</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.8989651469446116</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>10.085798921038077</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.194223512707246</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.0013860657227553</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.3525873710361438</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.382253393115221</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.1512027808986502</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.082090244939749</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.9887902185629045</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.277394946279358</v>
+        <v>12.108360115620016</v>
       </c>
       <c r="V2">
         <v>7.1069028698564267</v>
@@ -570,52 +465,55 @@
         <v>3.4380206320261522</v>
       </c>
       <c r="AA2">
-        <v>15.940360384919096</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>14.34044954971047</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.637937517224195</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>22.305132914881931</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>9.0970909583963433</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.064963845572734</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>12.619830047543864</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>15.090741921717296</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>14.493644623115571</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.5871640524335007</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>11.06630889679542</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.76863932088767228</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>13.983032143451659</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.17064555978687</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>22.271103765902986</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.0237595015827239</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>23.098298020324371</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.2439648798601084</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.1483160440816675</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.775965878614628</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.497371107717143</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>11.851809101915677</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.4375077414425661</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.353393342589797</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>24.543621682577815</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.392915090847175</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.1727473507279669</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>10.228377126803458</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>15.518577448331001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.4242243172262619</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.2961979451674353</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>1.2728719013312713</v>
       </c>
       <c r="AA3">
-        <v>17.690146985392794</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>15.136298743260504</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>18.017897450933376</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>23.047558865984989</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>14.900497828624793</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.864121715395122</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>7.1563900695378564</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>7.0262117317045423</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>38.10130185592196</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>18.541052290699284</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>16.2378240417681</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>11.524041127171941</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>12.070514308248143</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-5.9559750752126561</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>21.511185656348992</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.0226795110316473</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.194342679315923</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>15.207778429769107</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,18 +512,6 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4.6463274928739651</v>
-      </c>
-      <c r="C2">
-        <v>6.002524605305382</v>
-      </c>
-      <c r="D2">
-        <v>10.356389020243306</v>
-      </c>
-      <c r="E2">
-        <v>19.60514117360951</v>
-      </c>
       <c r="F2">
         <v>8.3637142430178528</v>
       </c>
@@ -648,14 +631,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>6.2439649084810114</v>
-      </c>
       <c r="C3">
-        <v>7.1483160760254663</v>
+        <v>1.2961979451674353</v>
+      </c>
+      <c r="D3">
+        <v>-5.1271008514283096</v>
       </c>
       <c r="E3">
-        <v>15.775965894429859</v>
+        <v>11.095753804291924</v>
       </c>
       <c r="F3">
         <v>5.4973711283072717</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.6463274928739651</v>
-      </c>
-      <c r="C2">
-        <v>6.002524605305382</v>
+        <v>10.43629856256954</v>
       </c>
       <c r="D2">
-        <v>10.356389020243306</v>
-      </c>
-      <c r="E2">
-        <v>19.60514117360951</v>
+        <v>13.983032143451659</v>
       </c>
       <c r="F2">
         <v>8.3637142430178528</v>
@@ -637,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.2439649084810114</v>
-      </c>
-      <c r="C3">
-        <v>7.1483160760254663</v>
+        <v>10.228377126803458</v>
+      </c>
+      <c r="D3">
+        <v>12.070514308248143</v>
       </c>
       <c r="E3">
-        <v>21.49295488917312</v>
+        <v>-5.1271008514283096</v>
       </c>
       <c r="F3">
         <v>5.4973711283072717</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,112 +513,118 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>4.6463274819545148</v>
+      </c>
+      <c r="C2">
+        <v>6.0025245966479019</v>
+      </c>
+      <c r="D2">
+        <v>10.356388993320124</v>
+      </c>
+      <c r="E2">
+        <v>19.605141164614636</v>
+      </c>
+      <c r="F2">
+        <v>8.363714235736488</v>
+      </c>
+      <c r="G2">
+        <v>8.6468046152181728</v>
+      </c>
+      <c r="H2">
+        <v>6.8989651469446116</v>
+      </c>
+      <c r="I2">
+        <v>14.004197552081138</v>
+      </c>
+      <c r="J2">
+        <v>12.194223512707246</v>
+      </c>
+      <c r="K2">
+        <v>4.0013860657227553</v>
+      </c>
+      <c r="L2">
+        <v>2.5580043076273782</v>
+      </c>
+      <c r="N2">
         <v>10.43629856256954</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>15.442322402638602</v>
+      </c>
+      <c r="Q2">
+        <v>1.9887902185629045</v>
+      </c>
+      <c r="V2">
+        <v>9.9951583394947292</v>
+      </c>
+      <c r="W2">
+        <v>-6.575435884349254</v>
+      </c>
+      <c r="X2">
+        <v>3.4380206320261522</v>
+      </c>
+      <c r="AA2">
+        <v>15.940360384919096</v>
+      </c>
+      <c r="AB2">
+        <v>14.34044954971047</v>
+      </c>
+      <c r="AC2">
+        <v>2.637937517224195</v>
+      </c>
+      <c r="AD2">
+        <v>22.305132914881931</v>
+      </c>
+      <c r="AE2">
+        <v>9.0970909583963433</v>
+      </c>
+      <c r="AF2">
+        <v>13.064963845572734</v>
+      </c>
+      <c r="AG2">
+        <v>12.619830047543864</v>
+      </c>
+      <c r="AH2">
+        <v>15.090741921717296</v>
+      </c>
+      <c r="AI2">
+        <v>14.493644623115571</v>
+      </c>
+      <c r="AJ2">
+        <v>8.5871640524335007</v>
+      </c>
+      <c r="AK2">
+        <v>11.06630889679542</v>
+      </c>
+      <c r="AL2">
+        <v>0.76863932088767228</v>
+      </c>
+      <c r="AM2">
         <v>13.983032143451659</v>
       </c>
-      <c r="F2">
-        <v>8.3637142430178528</v>
-      </c>
-      <c r="G2">
-        <v>8.646804613142109</v>
-      </c>
-      <c r="H2">
-        <v>6.8989651620114785</v>
-      </c>
-      <c r="I2">
-        <v>14.00419753657161</v>
-      </c>
-      <c r="J2">
-        <v>12.194223534418391</v>
-      </c>
-      <c r="K2">
-        <v>4.0013860559491192</v>
-      </c>
-      <c r="L2">
-        <v>2.5580043241482571</v>
-      </c>
-      <c r="N2">
-        <v>10.436298567883128</v>
-      </c>
-      <c r="P2">
-        <v>15.442322404853172</v>
-      </c>
-      <c r="Q2">
-        <v>1.988790252616397</v>
-      </c>
-      <c r="V2">
-        <v>9.9951583876285781</v>
-      </c>
-      <c r="W2">
-        <v>-6.5754358655714213</v>
-      </c>
-      <c r="X2">
-        <v>3.4380206519794783</v>
-      </c>
-      <c r="AA2">
-        <v>15.940360417456638</v>
-      </c>
-      <c r="AB2">
-        <v>14.340449609295334</v>
-      </c>
-      <c r="AC2">
-        <v>2.6379375159305098</v>
-      </c>
-      <c r="AD2">
-        <v>22.305132981970694</v>
-      </c>
-      <c r="AE2">
-        <v>9.0970909606304176</v>
-      </c>
-      <c r="AF2">
-        <v>13.064963851092088</v>
-      </c>
-      <c r="AG2">
-        <v>12.619830077967855</v>
-      </c>
-      <c r="AH2">
-        <v>15.090741967207805</v>
-      </c>
-      <c r="AI2">
-        <v>14.493644689447464</v>
-      </c>
-      <c r="AJ2">
-        <v>8.5871640644672524</v>
-      </c>
-      <c r="AK2">
-        <v>11.06630892596781</v>
-      </c>
-      <c r="AL2">
-        <v>0.7686393514391483</v>
-      </c>
-      <c r="AM2">
-        <v>13.983032200415884</v>
-      </c>
       <c r="AO2">
-        <v>22.271103817918267</v>
+        <v>22.271103765902986</v>
       </c>
       <c r="AR2">
-        <v>23.098298002306358</v>
+        <v>23.098298020324371</v>
       </c>
       <c r="AS2">
-        <v>18.118545418521784</v>
+        <v>18.118545361508929</v>
       </c>
       <c r="AU2">
-        <v>7.4854599146693346</v>
+        <v>7.4854598755730137</v>
       </c>
       <c r="AV2">
-        <v>5.4297498706914098</v>
+        <v>5.4297498050414603</v>
       </c>
       <c r="AW2">
-        <v>6.5891578087798095</v>
+        <v>6.5891577686768912</v>
       </c>
       <c r="AX2">
-        <v>16.978458282988761</v>
+        <v>16.978458257399815</v>
       </c>
       <c r="AY2">
-        <v>21.870200611613704</v>
+        <v>21.87020056393343</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -626,121 +632,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.2439648798601084</v>
+      </c>
+      <c r="C3">
+        <v>7.1483160440816675</v>
+      </c>
+      <c r="E3">
+        <v>21.492954893620237</v>
+      </c>
+      <c r="F3">
+        <v>5.497371107717143</v>
+      </c>
+      <c r="G3">
+        <v>11.851809101915677</v>
+      </c>
+      <c r="H3">
+        <v>1.4375077414425661</v>
+      </c>
+      <c r="J3">
+        <v>16.353393342589797</v>
+      </c>
+      <c r="K3">
+        <v>21.262104363747241</v>
+      </c>
+      <c r="L3">
+        <v>15.392915090847175</v>
+      </c>
+      <c r="M3">
+        <v>-0.59920419119728052</v>
+      </c>
+      <c r="N3">
         <v>10.228377126803458</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>15.518577448331001</v>
+      </c>
+      <c r="Q3">
+        <v>7.4242243172262619</v>
+      </c>
+      <c r="R3">
+        <v>1.2961979451674353</v>
+      </c>
+      <c r="W3">
+        <v>1.2728719013312713</v>
+      </c>
+      <c r="AA3">
+        <v>17.690146985392794</v>
+      </c>
+      <c r="AB3">
+        <v>15.136298743260504</v>
+      </c>
+      <c r="AC3">
+        <v>18.017897450933376</v>
+      </c>
+      <c r="AD3">
+        <v>23.047558865984989</v>
+      </c>
+      <c r="AE3">
+        <v>14.900497828624793</v>
+      </c>
+      <c r="AF3">
+        <v>12.864121715395122</v>
+      </c>
+      <c r="AG3">
+        <v>7.1563900695378564</v>
+      </c>
+      <c r="AH3">
+        <v>7.0262117317045423</v>
+      </c>
+      <c r="AI3">
+        <v>14.780741132526089</v>
+      </c>
+      <c r="AJ3">
+        <v>18.541052290699284</v>
+      </c>
+      <c r="AK3">
+        <v>16.2378240417681</v>
+      </c>
+      <c r="AL3">
+        <v>11.524041127171941</v>
+      </c>
+      <c r="AM3">
         <v>12.070514308248143</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-5.1271008514283096</v>
       </c>
-      <c r="F3">
-        <v>5.4973711283072717</v>
-      </c>
-      <c r="G3">
-        <v>11.851809120896995</v>
-      </c>
-      <c r="H3">
-        <v>1.4375077501292779</v>
-      </c>
-      <c r="J3">
-        <v>16.353393397014941</v>
-      </c>
-      <c r="K3">
-        <v>21.262104384545779</v>
-      </c>
-      <c r="L3">
-        <v>15.392915126804247</v>
-      </c>
-      <c r="M3">
-        <v>-0.59932343823543732</v>
-      </c>
-      <c r="N3">
-        <v>10.228377153447383</v>
-      </c>
-      <c r="P3">
-        <v>15.518577504662851</v>
-      </c>
-      <c r="Q3">
-        <v>7.4242243421734955</v>
-      </c>
-      <c r="R3">
-        <v>1.2961980037739878</v>
-      </c>
-      <c r="W3">
-        <v>1.2728719481040045</v>
-      </c>
-      <c r="AA3">
-        <v>17.690147028176121</v>
-      </c>
-      <c r="AB3">
-        <v>15.136298779356942</v>
-      </c>
-      <c r="AC3">
-        <v>18.017897459784656</v>
-      </c>
-      <c r="AD3">
-        <v>23.047558892474832</v>
-      </c>
-      <c r="AE3">
-        <v>14.900497837977042</v>
-      </c>
-      <c r="AF3">
-        <v>12.864121741798677</v>
-      </c>
-      <c r="AG3">
-        <v>7.1563901065412026</v>
-      </c>
-      <c r="AH3">
-        <v>7.0262117759864466</v>
-      </c>
-      <c r="AI3">
-        <v>14.780741191304472</v>
-      </c>
-      <c r="AJ3">
-        <v>18.541052328088966</v>
-      </c>
-      <c r="AK3">
-        <v>16.237824070171307</v>
-      </c>
-      <c r="AL3">
-        <v>11.524041180115091</v>
-      </c>
-      <c r="AM3">
-        <v>12.0705143794195</v>
-      </c>
-      <c r="AN3">
-        <v>-5.1271008212276143</v>
-      </c>
       <c r="AO3">
-        <v>21.511185678936947</v>
+        <v>21.511185656348992</v>
       </c>
       <c r="AP3">
-        <v>7.0226795450628074</v>
+        <v>7.0226795110316473</v>
       </c>
       <c r="AQ3">
-        <v>11.095753818423297</v>
+        <v>11.095753804291924</v>
       </c>
       <c r="AS3">
-        <v>15.207778439285754</v>
+        <v>15.207778429769107</v>
       </c>
       <c r="AT3">
-        <v>15.696035755661356</v>
+        <v>15.696035717564357</v>
       </c>
       <c r="AU3">
-        <v>10.230946021280594</v>
+        <v>10.230946009466763</v>
       </c>
       <c r="AV3">
-        <v>6.389752275959836</v>
+        <v>6.3897522459592295</v>
       </c>
       <c r="AW3">
-        <v>6.6911284475055766</v>
+        <v>6.6911284159242115</v>
       </c>
       <c r="AX3">
-        <v>8.3529719165930203</v>
+        <v>8.3529718821590109</v>
       </c>
       <c r="AY3">
-        <v>24.782528657147182</v>
+        <v>24.782528613887337</v>
       </c>
     </row>
   </sheetData>
